--- a/SlideMapping.xlsx
+++ b/SlideMapping.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +93,14 @@
   </si>
   <si>
     <t>021_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -497,10 +500,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -511,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -522,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -530,13 +533,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -599,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -610,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +638,15 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C16">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
